--- a/story_xlsx_files/12.xlsx
+++ b/story_xlsx_files/12.xlsx
@@ -12,12 +12,264 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>storyText</t>
   </si>
   <si>
-    <t>Airport breakup</t>
+    <t>locationEvent</t>
+  </si>
+  <si>
+    <t>socialEvent</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>lvin and Jessie were running late to the airport, and Jessie was fuming at Calvin and ready to end things with him.</t>
+    </r>
+  </si>
+  <si>
+    <t>When they entered the airport they had only 45 minutes until their international flight would depart from Jamaica for the US.</t>
+  </si>
+  <si>
+    <t>It had been a tough vacation for them: argument-filled and tense from the minute they had landed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jessie had really had it with Calvin’s constant ramblings about the same excruciatingly boring golfing and work stories, which he insisted on repeating to her regardless of how little interest she showed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calvin knew that Jessie was upset, but wasn't sure what to do besides attempting to keep his mouth shut for the time being. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>he security line was luckily very short, and once the online boarding passes were scanned, they were ushered quickly through the metal detector, not having to take off their shoes or remove their liquids from their bags.</t>
+    </r>
+  </si>
+  <si>
+    <t>“The infrastructure of this airport is really quite poor," said Calvin as they waited for their bags to emerge from the x-ray machine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“I really could've hidden something in my shoes quite easily.” </t>
+  </si>
+  <si>
+    <t>Jessie, exasperated at his need to broadcast his every inner thought to the world, scowled at the conveyor belt.</t>
+  </si>
+  <si>
+    <t>“What?” he said.</t>
+  </si>
+  <si>
+    <t>She balled up her fists and turned to face him.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>alvin, I really don’t think I can do this anymore.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">I think it’s best that once we get to the States we part ways for good.” </t>
+  </si>
+  <si>
+    <t>Calvin said nothing as he grabbed his bag and stormed away.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>essie trailed behind him as they made their way quickly toward their gate, shouting at his back in hopes of getting a response.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> “So now you have nothing to say?</t>
+  </si>
+  <si>
+    <t>Every time we talk, you are just looking for a way to steer the conversation back into stories that you are the only one interested in.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calvin didn't slow his pace, gritting his teeth and staring straight ahead. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The silence was punctuated only by the rapid rhythmic clacking of their suitcase wheels over the tile floor as they continued power-walking through the terminal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Well?” Jessie said, and Calvin finally turned to her.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">ell Jessie, this makes perfect sense. </t>
+    </r>
+  </si>
+  <si>
+    <t>If you feel this way, then I don’t want to keep boring you, and I agree, let’s part ways once we make it back.</t>
+  </si>
+  <si>
+    <t>I thought we were having a lovely time, but if the feeling was not mutual then so be it.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He was clearly hurt, but thought it was pointless to argue. </t>
+  </si>
+  <si>
+    <t>They finally made it to the gate, just as they heard the final call for passengers boarding their flight.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>hey scanned their tickets, and the annoyed flight attendant shooed them onto the jet bridge and then closed the door behind them.</t>
+    </r>
+  </si>
+  <si>
+    <t>Luckily, they had forgotten to arrange seats next to each other on the flight back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They both had first-class tickets, but Jessie was headed for seat 1B while Calvin's ticket was for 4F. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">efore Jessie sat down, she took a deep breath and then awkwardly shook Calvin’s hand, mumbling, “Well, have a nice flight.” </t>
+    </r>
+  </si>
+  <si>
+    <t>He laughed in disbelief and walked to his window seat three rows back to get ready for takeoff.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Both were at least relieved that the vacation and the fights were over, and they were looking forward to never having to struggle through another conversation together again.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -27,7 +279,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -43,6 +295,16 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times"/>
     </font>
   </fonts>
   <fills count="4">
@@ -184,7 +446,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -197,10 +459,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -209,14 +474,17 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1300,7 +1568,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1316,205 +1584,481 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="4">
+    <row r="2" ht="92.25" customHeight="1">
+      <c r="A2" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" ht="104.05" customHeight="1">
+      <c r="A3" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" ht="187.8" customHeight="1">
+      <c r="A4" t="s" s="12">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" ht="367.8" customHeight="1">
+      <c r="A5" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="116.05" customHeight="1">
+      <c r="A6" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="403.8" customHeight="1">
+      <c r="A7" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" ht="116.05" customHeight="1">
+      <c r="A8" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="56.05" customHeight="1">
+      <c r="A9" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" ht="223.8" customHeight="1">
+      <c r="A10" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" ht="43.8" customHeight="1">
+      <c r="A11" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" ht="79.8" customHeight="1">
+      <c r="A12" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" ht="97.8" customHeight="1">
+      <c r="A13" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" ht="133.8" customHeight="1">
+      <c r="A14" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" ht="115.8" customHeight="1">
+      <c r="A15" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" ht="241.8" customHeight="1">
+      <c r="A16" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" ht="79.8" customHeight="1">
+      <c r="A17" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" ht="241.8" customHeight="1">
+      <c r="A18" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="B18" s="9">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" ht="151.8" customHeight="1">
+      <c r="A19" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" ht="128.05" customHeight="1">
+      <c r="A20" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" ht="115.8" customHeight="1">
+      <c r="A21" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" ht="97.8" customHeight="1">
+      <c r="A22" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="B22" s="9">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10">
+        <v>3</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" ht="205.8" customHeight="1">
+      <c r="A23" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="B23" s="9">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" ht="151.8" customHeight="1">
+      <c r="A24" t="s" s="12">
+        <v>25</v>
+      </c>
+      <c r="B24" s="9">
+        <v>3</v>
+      </c>
+      <c r="C24" s="10">
+        <v>3</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" ht="115.8" customHeight="1">
+      <c r="A25" t="s" s="12">
+        <v>26</v>
+      </c>
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10">
+        <v>3</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" ht="169.8" customHeight="1">
+      <c r="A26" t="s" s="12">
+        <v>27</v>
+      </c>
+      <c r="B26" s="9">
+        <v>3</v>
+      </c>
+      <c r="C26" s="10">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" ht="277.8" customHeight="1">
+      <c r="A27" t="s" s="12">
+        <v>28</v>
+      </c>
+      <c r="B27" s="9">
+        <v>4</v>
+      </c>
+      <c r="C27" s="10">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" ht="151.8" customHeight="1">
+      <c r="A28" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="B28" s="9">
+        <v>4</v>
+      </c>
+      <c r="C28" s="10">
+        <v>3</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" ht="205.8" customHeight="1">
+      <c r="A29" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="B29" s="9">
+        <v>4</v>
+      </c>
+      <c r="C29" s="10">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" ht="259.8" customHeight="1">
+      <c r="A30" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="B30" s="9">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10">
+        <v>4</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" ht="169.8" customHeight="1">
+      <c r="A31" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="B31" s="9">
+        <v>4</v>
+      </c>
+      <c r="C31" s="10">
+        <v>4</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" ht="706.35" customHeight="1">
+      <c r="A32" t="s" s="12">
+        <v>33</v>
+      </c>
+      <c r="B32" s="9">
+        <v>4</v>
+      </c>
+      <c r="C32" s="10">
+        <v>4</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/12.xlsx
+++ b/story_xlsx_files/12.xlsx
@@ -23,6 +23,15 @@
     <t>socialEvent</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">It didn’t help the situation that </t>
+    </r>
     <r>
       <rPr>
         <b val="1"/>
@@ -48,30 +57,22 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>lvin and Jessie were running late to the airport, and Jessie was fuming at Calvin and ready to end things with him.</t>
+      <t>lvin and Jessie were running late to the airport, since Jessie had already been fuming at Calvin and preparing to end things with him.</t>
     </r>
   </si>
   <si>
     <t>When they entered the airport they had only 45 minutes until their international flight would depart from Jamaica for the US.</t>
   </si>
   <si>
-    <t>It had been a tough vacation for them: argument-filled and tense from the minute they had landed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jessie had really had it with Calvin’s constant ramblings about the same excruciatingly boring golfing and work stories, which he insisted on repeating to her regardless of how little interest she showed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calvin knew that Jessie was upset, but wasn't sure what to do besides attempting to keep his mouth shut for the time being. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t>It had been a tough vacation for them.</t>
+  </si>
+  <si>
+    <t>Jessie had really had it with Calvin’s constant ramblings about the same excruciatingly boring golfing and work stories, which he insisted on repeating to her regardless of how little interest she showed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calvin knew that Jessie was upset, but wasn't sure what to do besides attempting to carry on as normal and tell stories that took up the silence. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="16"/>
@@ -86,7 +87,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>he security line was luckily very short, and once the online boarding passes were scanned, they were ushered quickly through the metal detector, not having to take off their shoes or remove their liquids from their bags.</t>
+      <t>he security line was luckily very short, and once the online boarding passes were scanned they were ushered quickly through the metal detector, not having to take off their shoes or remove the liquids from their bags.</t>
     </r>
   </si>
   <si>
@@ -96,10 +97,10 @@
     <t xml:space="preserve">“I really could've hidden something in my shoes quite easily.” </t>
   </si>
   <si>
-    <t>Jessie, exasperated at his need to broadcast his every inner thought to the world, scowled at the conveyor belt.</t>
-  </si>
-  <si>
-    <t>“What?” he said.</t>
+    <t>Jessie, exasperated at his need to broadcast his every inner thought, scowled at the conveyor belt.</t>
+  </si>
+  <si>
+    <t>“What?”, he asked.</t>
   </si>
   <si>
     <t>She balled up her fists and turned to face him.</t>
@@ -158,7 +159,7 @@
     <t xml:space="preserve"> “So now you have nothing to say?</t>
   </si>
   <si>
-    <t>Every time we talk, you are just looking for a way to steer the conversation back into stories that you are the only one interested in.”</t>
+    <t>Every time we talk, you are just looking for a way to steer the conversation back into your stories.”</t>
   </si>
   <si>
     <t xml:space="preserve">Calvin didn't slow his pace, gritting his teeth and staring straight ahead. </t>
@@ -167,7 +168,7 @@
     <t xml:space="preserve">The silence was punctuated only by the rapid rhythmic clacking of their suitcase wheels over the tile floor as they continued power-walking through the terminal. </t>
   </si>
   <si>
-    <t xml:space="preserve"> “Well?” Jessie said, and Calvin finally turned to her.</t>
+    <t>“Well?” Jessie said, and Calvin finally turned to her.</t>
   </si>
   <si>
     <r>
@@ -176,7 +177,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> “</t>
+      <t>“</t>
     </r>
     <r>
       <rPr>
@@ -199,7 +200,7 @@
     <t>If you feel this way, then I don’t want to keep boring you, and I agree, let’s part ways once we make it back.</t>
   </si>
   <si>
-    <t>I thought we were having a lovely time, but if the feeling was not mutual then so be it.”</t>
+    <t>You should’ve spoken up about my apparent intolerability before you decided to plan this vacation.”</t>
   </si>
   <si>
     <t xml:space="preserve">He was clearly hurt, but thought it was pointless to argue. </t>
@@ -229,7 +230,7 @@
     <t>Luckily, they had forgotten to arrange seats next to each other on the flight back.</t>
   </si>
   <si>
-    <t xml:space="preserve">They both had first-class tickets, but Jessie was headed for seat 1B while Calvin's ticket was for 4F. </t>
+    <t xml:space="preserve">They both had first-class tickets, but Jessie was headed for seat 1B while Calvin's seat was 4F. </t>
   </si>
   <si>
     <r>
@@ -253,23 +254,7 @@
     <t>He laughed in disbelief and walked to his window seat three rows back to get ready for takeoff.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Both were at least relieved that the vacation and the fights were over, and they were looking forward to never having to struggle through another conversation together again.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <t xml:space="preserve">Both ordered a cocktail and tried to sleep during the flight. </t>
   </si>
 </sst>
 </file>
@@ -279,7 +264,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -300,11 +285,6 @@
       <sz val="16"/>
       <color indexed="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1595,7 +1575,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="92.25" customHeight="1">
+    <row r="2" ht="140.25" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>3</v>
       </c>
@@ -1625,7 +1605,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="187.8" customHeight="1">
+    <row r="4" ht="79.8" customHeight="1">
       <c r="A4" t="s" s="12">
         <v>5</v>
       </c>
@@ -1655,7 +1635,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" ht="116.05" customHeight="1">
+    <row r="6" ht="128.05" customHeight="1">
       <c r="A6" t="s" s="8">
         <v>7</v>
       </c>
@@ -1715,7 +1695,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="223.8" customHeight="1">
+    <row r="10" ht="205.8" customHeight="1">
       <c r="A10" t="s" s="12">
         <v>11</v>
       </c>
@@ -1835,7 +1815,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="241.8" customHeight="1">
+    <row r="18" ht="187.8" customHeight="1">
       <c r="A18" t="s" s="12">
         <v>19</v>
       </c>
@@ -1925,7 +1905,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="151.8" customHeight="1">
+    <row r="24" ht="187.8" customHeight="1">
       <c r="A24" t="s" s="12">
         <v>25</v>
       </c>
@@ -2000,7 +1980,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="205.8" customHeight="1">
+    <row r="29" ht="187.8" customHeight="1">
       <c r="A29" t="s" s="12">
         <v>30</v>
       </c>
@@ -2045,7 +2025,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="706.35" customHeight="1">
+    <row r="32" ht="215.8" customHeight="1">
       <c r="A32" t="s" s="12">
         <v>33</v>
       </c>

--- a/story_xlsx_files/12.xlsx
+++ b/story_xlsx_files/12.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>storyText</t>
   </si>
@@ -61,7 +61,7 @@
     </r>
   </si>
   <si>
-    <t>When they entered the airport they had only 45 minutes until their international flight would depart from Jamaica for the US.</t>
+    <t>Upon arriving, they had only 45 minutes until their international flight would depart from Jamaica for the US.</t>
   </si>
   <si>
     <t>It had been a tough vacation for them.</t>
@@ -135,7 +135,7 @@
     <t xml:space="preserve">I think it’s best that once we get to the States we part ways for good.” </t>
   </si>
   <si>
-    <t>Calvin said nothing as he grabbed his bag and stormed away.</t>
+    <t>Calvin said nothing as he grabbed his bag and quickly walked away.</t>
   </si>
   <si>
     <r>
@@ -156,13 +156,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> “So now you have nothing to say?</t>
+    <t>“So now you have nothing to say?</t>
   </si>
   <si>
     <t>Every time we talk, you are just looking for a way to steer the conversation back into your stories.”</t>
   </si>
   <si>
     <t xml:space="preserve">Calvin didn't slow his pace, gritting his teeth and staring straight ahead. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He was very frustrated that he had been trying to appease Jessie this whole time and this was how she responded. </t>
   </si>
   <si>
     <t xml:space="preserve">The silence was punctuated only by the rapid rhythmic clacking of their suitcase wheels over the tile floor as they continued power-walking through the terminal. </t>
@@ -193,7 +196,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">ell Jessie, this makes perfect sense. </t>
+      <t xml:space="preserve">ell, Jessie, this makes perfect sense. </t>
     </r>
   </si>
   <si>
@@ -254,7 +257,7 @@
     <t>He laughed in disbelief and walked to his window seat three rows back to get ready for takeoff.</t>
   </si>
   <si>
-    <t xml:space="preserve">Both ordered a cocktail and tried to sleep during the flight. </t>
+    <t xml:space="preserve">Both were upset but glad that they would have this flight to mull things over and recenter. </t>
   </si>
 </sst>
 </file>
@@ -268,7 +271,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -464,7 +467,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1548,7 +1551,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1556,7 +1559,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1590,7 +1599,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="104.05" customHeight="1">
+    <row r="3" ht="92.05" customHeight="1">
       <c r="A3" t="s" s="8">
         <v>4</v>
       </c>
@@ -1770,7 +1779,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="115.8" customHeight="1">
+    <row r="15" ht="133.8" customHeight="1">
       <c r="A15" t="s" s="12">
         <v>16</v>
       </c>
@@ -1845,8 +1854,8 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="128.05" customHeight="1">
-      <c r="A20" t="s" s="8">
+    <row r="20" ht="187.8" customHeight="1">
+      <c r="A20" t="s" s="12">
         <v>21</v>
       </c>
       <c r="B20" s="9">
@@ -1860,8 +1869,8 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="115.8" customHeight="1">
-      <c r="A21" t="s" s="12">
+    <row r="21" ht="128.05" customHeight="1">
+      <c r="A21" t="s" s="8">
         <v>22</v>
       </c>
       <c r="B21" s="9">
@@ -1875,23 +1884,23 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="97.8" customHeight="1">
-      <c r="A22" t="s" s="8">
+    <row r="22" ht="115.8" customHeight="1">
+      <c r="A22" t="s" s="12">
         <v>23</v>
       </c>
       <c r="B22" s="9">
         <v>3</v>
       </c>
       <c r="C22" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="205.8" customHeight="1">
-      <c r="A23" t="s" s="12">
+    <row r="23" ht="97.8" customHeight="1">
+      <c r="A23" t="s" s="8">
         <v>24</v>
       </c>
       <c r="B23" s="9">
@@ -1905,7 +1914,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="187.8" customHeight="1">
+    <row r="24" ht="205.8" customHeight="1">
       <c r="A24" t="s" s="12">
         <v>25</v>
       </c>
@@ -1920,7 +1929,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="115.8" customHeight="1">
+    <row r="25" ht="187.8" customHeight="1">
       <c r="A25" t="s" s="12">
         <v>26</v>
       </c>
@@ -1935,7 +1944,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="169.8" customHeight="1">
+    <row r="26" ht="115.8" customHeight="1">
       <c r="A26" t="s" s="12">
         <v>27</v>
       </c>
@@ -1950,12 +1959,12 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="277.8" customHeight="1">
+    <row r="27" ht="169.8" customHeight="1">
       <c r="A27" t="s" s="12">
         <v>28</v>
       </c>
       <c r="B27" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="10">
         <v>3</v>
@@ -1965,7 +1974,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="151.8" customHeight="1">
+    <row r="28" ht="277.8" customHeight="1">
       <c r="A28" t="s" s="12">
         <v>29</v>
       </c>
@@ -1980,7 +1989,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="187.8" customHeight="1">
+    <row r="29" ht="151.8" customHeight="1">
       <c r="A29" t="s" s="12">
         <v>30</v>
       </c>
@@ -1995,7 +2004,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="259.8" customHeight="1">
+    <row r="30" ht="187.8" customHeight="1">
       <c r="A30" t="s" s="12">
         <v>31</v>
       </c>
@@ -2003,14 +2012,14 @@
         <v>4</v>
       </c>
       <c r="C30" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="169.8" customHeight="1">
+    <row r="31" ht="259.8" customHeight="1">
       <c r="A31" t="s" s="12">
         <v>32</v>
       </c>
@@ -2025,7 +2034,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="215.8" customHeight="1">
+    <row r="32" ht="169.8" customHeight="1">
       <c r="A32" t="s" s="12">
         <v>33</v>
       </c>
@@ -2039,6 +2048,21 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
+    </row>
+    <row r="33" ht="329.8" customHeight="1">
+      <c r="A33" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="B33" s="9">
+        <v>4</v>
+      </c>
+      <c r="C33" s="10">
+        <v>4</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/12.xlsx
+++ b/story_xlsx_files/12.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>storyText</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>socialEvent</t>
+  </si>
+  <si>
+    <t>story</t>
   </si>
   <si>
     <r>
@@ -30,34 +33,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve">It didn’t help the situation that </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>lvin and Jessie were running late to the airport, since Jessie had already been fuming at Calvin and preparing to end things with him.</t>
+      <t>It didn’t help the situation that Calvin and Jessie were running late to the airport, since Jessie had already been fuming at Calvin and preparing to end things with him.</t>
     </r>
   </si>
   <si>
@@ -79,31 +55,39 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>T</t>
+      <t>The security line was luckily very short, and once the online boarding passes were scanned they were ushered quickly through the metal detector, not having to take off their shoes or remove the liquids from their bags.</t>
     </r>
+  </si>
+  <si>
+    <t>“The infrastructure of this airport is really quite poor," said Calvin as they waited for their bags to emerge from the x-ray machine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“I really could've hidden something in my shoes quite easily.” </t>
+  </si>
+  <si>
+    <t>Jessie, exasperated at his need to broadcast his every inner thought, scowled at the conveyor belt.</t>
+  </si>
+  <si>
+    <t>“What?”, he asked.</t>
+  </si>
+  <si>
+    <t>She balled up her fists and turned to face him.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>he security line was luckily very short, and once the online boarding passes were scanned they were ushered quickly through the metal detector, not having to take off their shoes or remove the liquids from their bags.</t>
+      <t>“Calvin, I really don’t think I can do this anymore.</t>
     </r>
   </si>
   <si>
-    <t>“The infrastructure of this airport is really quite poor," said Calvin as they waited for their bags to emerge from the x-ray machine.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“I really could've hidden something in my shoes quite easily.” </t>
-  </si>
-  <si>
-    <t>Jessie, exasperated at his need to broadcast his every inner thought, scowled at the conveyor belt.</t>
-  </si>
-  <si>
-    <t>“What?”, he asked.</t>
-  </si>
-  <si>
-    <t>She balled up her fists and turned to face him.</t>
+    <t xml:space="preserve">I think it’s best that once we get to the States we part ways for good.” </t>
+  </si>
+  <si>
+    <t>Calvin said nothing as he grabbed his bag and quickly walked away.</t>
   </si>
   <si>
     <r>
@@ -112,30 +96,64 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>“</t>
+      <t>Jessie trailed behind him as they made their way quickly toward their gate, shouting at his back in hopes of getting a response.</t>
     </r>
+  </si>
+  <si>
+    <t>“So now you have nothing to say?</t>
+  </si>
+  <si>
+    <t>Every time we talk, you are just looking for a way to steer the conversation back into your stories.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calvin didn't slow his pace, gritting his teeth and staring straight ahead. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He was very frustrated that he had been trying to appease Jessie this whole time and this was how she responded. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The silence was punctuated only by the rapid rhythmic clacking of their suitcase wheels over the tile floor as they continued power-walking through the terminal. </t>
+  </si>
+  <si>
+    <t>“Well?” Jessie said, and Calvin finally turned to her.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>C</t>
+      <t xml:space="preserve">“Well, Jessie, this makes perfect sense. </t>
     </r>
+  </si>
+  <si>
+    <t>If you feel this way, then I don’t want to keep boring you, and I agree, let’s part ways once we make it back.</t>
+  </si>
+  <si>
+    <t>You should’ve spoken up about my apparent intolerability before you decided to plan this vacation.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He was clearly hurt, but thought it was pointless to argue. </t>
+  </si>
+  <si>
+    <t>They finally made it to the gate, just as they heard the final call for passengers boarding their flight.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>alvin, I really don’t think I can do this anymore.</t>
+      <t>They scanned their tickets, and the annoyed flight attendant shooed them onto the jet bridge and then closed the door behind them.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">I think it’s best that once we get to the States we part ways for good.” </t>
-  </si>
-  <si>
-    <t>Calvin said nothing as he grabbed his bag and quickly walked away.</t>
+    <t>Luckily, they had forgotten to arrange seats next to each other on the flight back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They both had first-class tickets, but Jessie was headed for seat 1B while Calvin's seat was 4F. </t>
   </si>
   <si>
     <r>
@@ -144,113 +162,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>J</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>essie trailed behind him as they made their way quickly toward their gate, shouting at his back in hopes of getting a response.</t>
-    </r>
-  </si>
-  <si>
-    <t>“So now you have nothing to say?</t>
-  </si>
-  <si>
-    <t>Every time we talk, you are just looking for a way to steer the conversation back into your stories.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calvin didn't slow his pace, gritting his teeth and staring straight ahead. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">He was very frustrated that he had been trying to appease Jessie this whole time and this was how she responded. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The silence was punctuated only by the rapid rhythmic clacking of their suitcase wheels over the tile floor as they continued power-walking through the terminal. </t>
-  </si>
-  <si>
-    <t>“Well?” Jessie said, and Calvin finally turned to her.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>W</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">ell, Jessie, this makes perfect sense. </t>
-    </r>
-  </si>
-  <si>
-    <t>If you feel this way, then I don’t want to keep boring you, and I agree, let’s part ways once we make it back.</t>
-  </si>
-  <si>
-    <t>You should’ve spoken up about my apparent intolerability before you decided to plan this vacation.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He was clearly hurt, but thought it was pointless to argue. </t>
-  </si>
-  <si>
-    <t>They finally made it to the gate, just as they heard the final call for passengers boarding their flight.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>hey scanned their tickets, and the annoyed flight attendant shooed them onto the jet bridge and then closed the door behind them.</t>
-    </r>
-  </si>
-  <si>
-    <t>Luckily, they had forgotten to arrange seats next to each other on the flight back.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They both had first-class tickets, but Jessie was headed for seat 1B while Calvin's seat was 4F. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">efore Jessie sat down, she took a deep breath and then awkwardly shook Calvin’s hand, mumbling, “Well, have a nice flight.” </t>
+      <t xml:space="preserve">Before Jessie sat down, she took a deep breath and then awkwardly shook Calvin’s hand, mumbling, “Well, have a nice flight.” </t>
     </r>
   </si>
   <si>
@@ -267,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -276,7 +188,12 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <b val="1"/>
@@ -290,7 +207,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -429,44 +352,38 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -490,6 +407,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -506,10 +424,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -538,14 +456,14 @@
     </a:clrScheme>
     <a:fontScheme name="Blank">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Blank">
@@ -686,11 +604,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -699,33 +620,33 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
@@ -976,10 +897,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1270,7 +1191,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1294,9 +1215,9 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
@@ -1553,9 +1474,7 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1579,14 +1498,16 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" ht="140.25" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1594,481 +1515,483 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="6">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" ht="92.05" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="A3" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" ht="79.8" customHeight="1">
+      <c r="A4" t="s" s="10">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" ht="367.8" customHeight="1">
+      <c r="A5" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" ht="128.05" customHeight="1">
+      <c r="A6" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" ht="403.8" customHeight="1">
+      <c r="A7" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" ht="116.05" customHeight="1">
+      <c r="A8" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" ht="56.05" customHeight="1">
+      <c r="A9" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" ht="205.8" customHeight="1">
+      <c r="A10" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" ht="43.8" customHeight="1">
+      <c r="A11" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" ht="79.8" customHeight="1">
+      <c r="A12" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" ht="97.8" customHeight="1">
+      <c r="A13" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" ht="133.8" customHeight="1">
+      <c r="A14" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" ht="133.8" customHeight="1">
+      <c r="A15" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" ht="241.8" customHeight="1">
+      <c r="A16" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" ht="79.8" customHeight="1">
+      <c r="A17" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" ht="187.8" customHeight="1">
+      <c r="A18" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="B18" s="8">
+        <v>3</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" ht="151.8" customHeight="1">
+      <c r="A19" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="B19" s="8">
+        <v>3</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" ht="187.8" customHeight="1">
+      <c r="A20" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="B20" s="8">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" ht="128.05" customHeight="1">
+      <c r="A21" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="B21" s="8">
+        <v>3</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" ht="115.8" customHeight="1">
+      <c r="A22" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="B22" s="8">
+        <v>3</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" ht="97.8" customHeight="1">
+      <c r="A23" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="B23" s="8">
+        <v>3</v>
+      </c>
+      <c r="C23" s="9">
+        <v>3</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" ht="205.8" customHeight="1">
+      <c r="A24" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="B24" s="8">
+        <v>3</v>
+      </c>
+      <c r="C24" s="9">
+        <v>3</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" ht="187.8" customHeight="1">
+      <c r="A25" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="B25" s="8">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9">
+        <v>3</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" ht="115.8" customHeight="1">
+      <c r="A26" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="B26" s="8">
+        <v>3</v>
+      </c>
+      <c r="C26" s="9">
+        <v>3</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" ht="169.8" customHeight="1">
+      <c r="A27" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="B27" s="8">
+        <v>3</v>
+      </c>
+      <c r="C27" s="9">
+        <v>3</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" ht="277.8" customHeight="1">
+      <c r="A28" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="B28" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" ht="79.8" customHeight="1">
-      <c r="A4" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" ht="367.8" customHeight="1">
-      <c r="A5" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" ht="128.05" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" ht="403.8" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" ht="116.05" customHeight="1">
-      <c r="A8" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" ht="56.05" customHeight="1">
-      <c r="A9" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" ht="205.8" customHeight="1">
-      <c r="A10" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="B10" s="9">
-        <v>2</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" ht="43.8" customHeight="1">
-      <c r="A11" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="B11" s="9">
-        <v>2</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" ht="79.8" customHeight="1">
-      <c r="A12" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="B12" s="9">
-        <v>2</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" ht="97.8" customHeight="1">
-      <c r="A13" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="B13" s="9">
-        <v>2</v>
-      </c>
-      <c r="C13" s="10">
-        <v>2</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" ht="133.8" customHeight="1">
-      <c r="A14" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="B14" s="9">
-        <v>2</v>
-      </c>
-      <c r="C14" s="10">
-        <v>2</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" ht="133.8" customHeight="1">
-      <c r="A15" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="B15" s="9">
-        <v>2</v>
-      </c>
-      <c r="C15" s="10">
-        <v>2</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" ht="241.8" customHeight="1">
-      <c r="A16" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="B16" s="9">
-        <v>3</v>
-      </c>
-      <c r="C16" s="10">
-        <v>2</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" ht="79.8" customHeight="1">
-      <c r="A17" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="B17" s="9">
-        <v>3</v>
-      </c>
-      <c r="C17" s="10">
-        <v>2</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" ht="187.8" customHeight="1">
-      <c r="A18" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="B18" s="9">
-        <v>3</v>
-      </c>
-      <c r="C18" s="10">
-        <v>2</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" ht="151.8" customHeight="1">
-      <c r="A19" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="B19" s="9">
-        <v>3</v>
-      </c>
-      <c r="C19" s="10">
-        <v>2</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" ht="187.8" customHeight="1">
-      <c r="A20" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="B20" s="9">
-        <v>3</v>
-      </c>
-      <c r="C20" s="10">
-        <v>2</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" ht="128.05" customHeight="1">
-      <c r="A21" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="B21" s="9">
-        <v>3</v>
-      </c>
-      <c r="C21" s="10">
-        <v>2</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" ht="115.8" customHeight="1">
-      <c r="A22" t="s" s="12">
-        <v>23</v>
-      </c>
-      <c r="B22" s="9">
-        <v>3</v>
-      </c>
-      <c r="C22" s="10">
-        <v>2</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" ht="97.8" customHeight="1">
-      <c r="A23" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="B23" s="9">
-        <v>3</v>
-      </c>
-      <c r="C23" s="10">
-        <v>3</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" ht="205.8" customHeight="1">
-      <c r="A24" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="B24" s="9">
-        <v>3</v>
-      </c>
-      <c r="C24" s="10">
-        <v>3</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" ht="187.8" customHeight="1">
-      <c r="A25" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="B25" s="9">
-        <v>3</v>
-      </c>
-      <c r="C25" s="10">
-        <v>3</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" ht="115.8" customHeight="1">
-      <c r="A26" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="B26" s="9">
-        <v>3</v>
-      </c>
-      <c r="C26" s="10">
-        <v>3</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" ht="169.8" customHeight="1">
-      <c r="A27" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="B27" s="9">
-        <v>3</v>
-      </c>
-      <c r="C27" s="10">
-        <v>3</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" ht="277.8" customHeight="1">
-      <c r="A28" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="B28" s="9">
+      <c r="C28" s="9">
+        <v>3</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" ht="151.8" customHeight="1">
+      <c r="A29" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="B29" s="8">
         <v>4</v>
       </c>
-      <c r="C28" s="10">
-        <v>3</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" ht="151.8" customHeight="1">
-      <c r="A29" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="B29" s="9">
+      <c r="C29" s="9">
+        <v>3</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" ht="187.8" customHeight="1">
+      <c r="A30" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="B30" s="8">
         <v>4</v>
       </c>
-      <c r="C29" s="10">
-        <v>3</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" ht="187.8" customHeight="1">
-      <c r="A30" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="B30" s="9">
+      <c r="C30" s="9">
+        <v>3</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" ht="259.8" customHeight="1">
+      <c r="A31" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="B31" s="8">
         <v>4</v>
       </c>
-      <c r="C30" s="10">
-        <v>3</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" ht="259.8" customHeight="1">
-      <c r="A31" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="B31" s="9">
+      <c r="C31" s="9">
         <v>4</v>
       </c>
-      <c r="C31" s="10">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" ht="169.8" customHeight="1">
+      <c r="A32" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="B32" s="8">
         <v>4</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" ht="169.8" customHeight="1">
-      <c r="A32" t="s" s="12">
-        <v>33</v>
-      </c>
-      <c r="B32" s="9">
+      <c r="C32" s="9">
         <v>4</v>
       </c>
-      <c r="C32" s="10">
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" ht="329.8" customHeight="1">
+      <c r="A33" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="B33" s="8">
         <v>4</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" ht="329.8" customHeight="1">
-      <c r="A33" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="B33" s="9">
+      <c r="C33" s="9">
         <v>4</v>
       </c>
-      <c r="C33" s="10">
-        <v>4</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/story_xlsx_files/12.xlsx
+++ b/story_xlsx_files/12.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>storyText</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Jessie had really had it with Calvin’s constant ramblings about the same excruciatingly boring golfing and work stories, which he insisted on repeating to her regardless of how little interest she showed.</t>
   </si>
   <si>
+    <t xml:space="preserve">She decided she would break up with him after 6 weeks of thinking about it. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Calvin knew that Jessie was upset, but wasn't sure what to do besides attempting to carry on as normal and tell stories that took up the silence. </t>
   </si>
   <si>
@@ -55,7 +58,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>The security line was luckily very short, and once the online boarding passes were scanned they were ushered quickly through the metal detector, not having to take off their shoes or remove the liquids from their bags.</t>
+      <t>The security line was luckily very short, and once the online boarding passes were scanned, Calvin took his belt and watch and they put their bags on the conveyor belt before being ushered quickly through the metal detector.</t>
     </r>
   </si>
   <si>
@@ -80,7 +83,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>“Calvin, I really don’t think I can do this anymore.</t>
+      <t xml:space="preserve">“Calvin, I really don’t think I can do this anymore because I don’t think our personalities are compatible. </t>
     </r>
   </si>
   <si>
@@ -96,7 +99,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Jessie trailed behind him as they made their way quickly toward their gate, shouting at his back in hopes of getting a response.</t>
+      <t>Jessie trailed behind him as they made their way quickly toward their gate, A28, shouting at his back in hopes of getting a response.</t>
     </r>
   </si>
   <si>
@@ -112,23 +115,34 @@
     <t xml:space="preserve">He was very frustrated that he had been trying to appease Jessie this whole time and this was how she responded. </t>
   </si>
   <si>
-    <t xml:space="preserve">The silence was punctuated only by the rapid rhythmic clacking of their suitcase wheels over the tile floor as they continued power-walking through the terminal. </t>
-  </si>
-  <si>
-    <t>“Well?” Jessie said, and Calvin finally turned to her.</t>
-  </si>
-  <si>
+    <t xml:space="preserve">This silence was punctuated only by the rapid rhythmic clacking of their suitcase wheels over the tile floor as they continued power-walking through the terminal. </t>
+  </si>
+  <si>
+    <t>“Well?” Jessie said,</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue Medium"/>
+      </rPr>
+      <t>Calvin finally turned to her, “</t>
+    </r>
     <r>
       <rPr>
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">“Well, Jessie, this makes perfect sense. </t>
+      <t xml:space="preserve">Well, Jessie, this makes perfect sense. </t>
     </r>
   </si>
   <si>
-    <t>If you feel this way, then I don’t want to keep boring you, and I agree, let’s part ways once we make it back.</t>
+    <t>If you feel this way, then I think we should break up because I don’t want to keep boring you.</t>
+  </si>
+  <si>
+    <t>I agree, let’s part ways once we make it back.</t>
   </si>
   <si>
     <t>You should’ve spoken up about my apparent intolerability before you decided to plan this vacation.”</t>
@@ -153,7 +167,7 @@
     <t>Luckily, they had forgotten to arrange seats next to each other on the flight back.</t>
   </si>
   <si>
-    <t xml:space="preserve">They both had first-class tickets, but Jessie was headed for seat 1B while Calvin's seat was 4F. </t>
+    <t xml:space="preserve">They were both economy, but Jessie was headed for seat 33A while Calvin's seat was 33F. </t>
   </si>
   <si>
     <r>
@@ -162,8 +176,11 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Before Jessie sat down, she took a deep breath and then awkwardly shook Calvin’s hand, mumbling, “Well, have a nice flight.” </t>
+      <t xml:space="preserve">Before Jessie sat down, she took a deep breath and then awkwardly shook Calvin’s hand, mumbling, “Well, have a nice flight. </t>
     </r>
+  </si>
+  <si>
+    <t>Oh, and when you get a chance could you send me back all the philosophy books I lent you?”</t>
   </si>
   <si>
     <t>He laughed in disbelief and walked to his window seat three rows back to get ready for takeoff.</t>
@@ -352,7 +369,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -362,7 +379,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -374,6 +391,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -381,6 +401,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1472,19 +1495,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1518,474 +1535,519 @@
       <c r="D2" s="6">
         <v>12</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" ht="92.05" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" ht="79.8" customHeight="1">
-      <c r="A4" t="s" s="10">
+      <c r="A4" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" ht="367.8" customHeight="1">
-      <c r="A5" t="s" s="10">
+      <c r="A5" t="s" s="12">
         <v>7</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="128.05" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="367.8" customHeight="1">
+      <c r="A6" t="s" s="12">
         <v>8</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="403.8" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="128.05" customHeight="1">
+      <c r="A7" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" ht="403.8" customHeight="1">
+      <c r="A8" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C8" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="116.05" customHeight="1">
-      <c r="A8" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="116.05" customHeight="1">
+      <c r="A9" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9">
         <v>2</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C9" s="10">
         <v>1</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="56.05" customHeight="1">
-      <c r="A9" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" ht="56.05" customHeight="1">
+      <c r="A10" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9">
         <v>2</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C10" s="10">
         <v>1</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="205.8" customHeight="1">
-      <c r="A10" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" ht="205.8" customHeight="1">
+      <c r="A11" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9">
         <v>2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C11" s="10">
         <v>1</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="43.8" customHeight="1">
-      <c r="A11" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="B11" s="8">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" ht="43.8" customHeight="1">
+      <c r="A12" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9">
         <v>2</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C12" s="10">
         <v>1</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="79.8" customHeight="1">
-      <c r="A12" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="B12" s="8">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" ht="79.8" customHeight="1">
+      <c r="A13" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="B13" s="9">
         <v>2</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C13" s="10">
         <v>1</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="97.8" customHeight="1">
-      <c r="A13" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" ht="97.8" customHeight="1">
+      <c r="A14" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="B14" s="9">
         <v>2</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C14" s="10">
         <v>2</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" ht="133.8" customHeight="1">
-      <c r="A14" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" ht="133.8" customHeight="1">
+      <c r="A15" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C15" s="10">
         <v>2</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" ht="133.8" customHeight="1">
-      <c r="A15" t="s" s="10">
-        <v>17</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" ht="133.8" customHeight="1">
+      <c r="A16" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="B16" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C16" s="10">
         <v>2</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" ht="241.8" customHeight="1">
-      <c r="A16" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="B16" s="8">
-        <v>3</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" ht="241.8" customHeight="1">
+      <c r="A17" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="B17" s="9">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10">
         <v>2</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" ht="79.8" customHeight="1">
-      <c r="A17" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="B17" s="8">
-        <v>3</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" ht="79.8" customHeight="1">
+      <c r="A18" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="B18" s="9">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10">
         <v>2</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" ht="187.8" customHeight="1">
-      <c r="A18" t="s" s="10">
-        <v>20</v>
-      </c>
-      <c r="B18" s="8">
-        <v>3</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" ht="187.8" customHeight="1">
+      <c r="A19" t="s" s="12">
+        <v>21</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10">
         <v>2</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" ht="151.8" customHeight="1">
-      <c r="A19" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="B19" s="8">
-        <v>3</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" ht="151.8" customHeight="1">
+      <c r="A20" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="B20" s="9">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10">
         <v>2</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="187.8" customHeight="1">
-      <c r="A20" t="s" s="10">
-        <v>22</v>
-      </c>
-      <c r="B20" s="8">
-        <v>3</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" ht="187.8" customHeight="1">
+      <c r="A21" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
         <v>2</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="128.05" customHeight="1">
-      <c r="A21" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B21" s="8">
-        <v>3</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" ht="128.05" customHeight="1">
+      <c r="A22" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="B22" s="9">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10">
         <v>2</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" ht="115.8" customHeight="1">
-      <c r="A22" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="B22" s="8">
-        <v>3</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" ht="115.8" customHeight="1">
+      <c r="A23" t="s" s="12">
+        <v>25</v>
+      </c>
+      <c r="B23" s="9">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10">
         <v>2</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" ht="97.8" customHeight="1">
-      <c r="A23" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="B23" s="8">
-        <v>3</v>
-      </c>
-      <c r="C23" s="9">
-        <v>3</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" ht="205.8" customHeight="1">
-      <c r="A24" t="s" s="10">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" ht="97.8" customHeight="1">
+      <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="B24" s="8">
-        <v>3</v>
-      </c>
-      <c r="C24" s="9">
-        <v>3</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" ht="187.8" customHeight="1">
-      <c r="A25" t="s" s="10">
+      <c r="B24" s="9">
+        <v>3</v>
+      </c>
+      <c r="C24" s="10">
+        <v>3</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" ht="205.8" customHeight="1">
+      <c r="A25" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="B25" s="8">
-        <v>3</v>
-      </c>
-      <c r="C25" s="9">
-        <v>3</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" ht="115.8" customHeight="1">
-      <c r="A26" t="s" s="10">
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10">
+        <v>3</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" ht="205.8" customHeight="1">
+      <c r="A26" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="B26" s="8">
-        <v>3</v>
-      </c>
-      <c r="C26" s="9">
-        <v>3</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" ht="169.8" customHeight="1">
-      <c r="A27" t="s" s="10">
+      <c r="B26" s="9">
+        <v>3</v>
+      </c>
+      <c r="C26" s="10">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" ht="187.8" customHeight="1">
+      <c r="A27" t="s" s="12">
         <v>29</v>
       </c>
-      <c r="B27" s="8">
-        <v>3</v>
-      </c>
-      <c r="C27" s="9">
-        <v>3</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" ht="277.8" customHeight="1">
-      <c r="A28" t="s" s="10">
+      <c r="B27" s="9">
+        <v>3</v>
+      </c>
+      <c r="C27" s="10">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" ht="115.8" customHeight="1">
+      <c r="A28" t="s" s="12">
         <v>30</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="9">
+        <v>3</v>
+      </c>
+      <c r="C28" s="10">
+        <v>3</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" ht="169.8" customHeight="1">
+      <c r="A29" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="B29" s="9">
+        <v>3</v>
+      </c>
+      <c r="C29" s="10">
+        <v>3</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" ht="277.8" customHeight="1">
+      <c r="A30" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="B30" s="9">
         <v>4</v>
       </c>
-      <c r="C28" s="9">
-        <v>3</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" ht="151.8" customHeight="1">
-      <c r="A29" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="B29" s="8">
+      <c r="C30" s="10">
+        <v>3</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" ht="151.8" customHeight="1">
+      <c r="A31" t="s" s="12">
+        <v>33</v>
+      </c>
+      <c r="B31" s="9">
         <v>4</v>
       </c>
-      <c r="C29" s="9">
-        <v>3</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" ht="187.8" customHeight="1">
-      <c r="A30" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="B30" s="8">
+      <c r="C31" s="10">
+        <v>3</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" ht="187.8" customHeight="1">
+      <c r="A32" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="B32" s="9">
         <v>4</v>
       </c>
-      <c r="C30" s="9">
-        <v>3</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" ht="259.8" customHeight="1">
-      <c r="A31" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="B31" s="8">
+      <c r="C32" s="10">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" ht="259.8" customHeight="1">
+      <c r="A33" t="s" s="12">
+        <v>35</v>
+      </c>
+      <c r="B33" s="9">
         <v>4</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C33" s="10">
         <v>4</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" ht="169.8" customHeight="1">
-      <c r="A32" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="B32" s="8">
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" ht="259.8" customHeight="1">
+      <c r="A34" t="s" s="12">
+        <v>36</v>
+      </c>
+      <c r="B34" s="9">
         <v>4</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C34" s="10">
         <v>4</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" ht="329.8" customHeight="1">
-      <c r="A33" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="B33" s="8">
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" ht="169.8" customHeight="1">
+      <c r="A35" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="B35" s="9">
         <v>4</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C35" s="10">
         <v>4</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" ht="329.8" customHeight="1">
+      <c r="A36" t="s" s="12">
+        <v>38</v>
+      </c>
+      <c r="B36" s="9">
+        <v>4</v>
+      </c>
+      <c r="C36" s="10">
+        <v>4</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/12.xlsx
+++ b/story_xlsx_files/12.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>storyText</t>
   </si>
@@ -40,16 +40,10 @@
     <t>Upon arriving, they had only 45 minutes until their international flight would depart from Jamaica for the US.</t>
   </si>
   <si>
-    <t>It had been a tough vacation for them.</t>
-  </si>
-  <si>
-    <t>Jessie had really had it with Calvin’s constant ramblings about the same excruciatingly boring golfing and work stories, which he insisted on repeating to her regardless of how little interest she showed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She decided she would break up with him after 6 weeks of thinking about it. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calvin knew that Jessie was upset, but wasn't sure what to do besides attempting to carry on as normal and tell stories that took up the silence. </t>
+    <t xml:space="preserve">It had been a tough vacation for them, and Jessie finally decided she would break up with Calvin after 6 weeks of thinking about it. </t>
+  </si>
+  <si>
+    <t>Calvin knew that Jessie was upset, but wasn't sure what to do besides attempting to carry on as normal.</t>
   </si>
   <si>
     <r>
@@ -58,25 +52,33 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>The security line was luckily very short, and once the online boarding passes were scanned, Calvin took his belt and watch and they put their bags on the conveyor belt before being ushered quickly through the metal detector.</t>
+      <t>The security line was luckily very short, and once the online boarding passes were scanned, Calvin took his belt and watch and they put their bags on the conveyor belt.</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">There was a short halt in security proceedings so that the security guards could change shifts but once everything was back in order they were ushered quickly through the metal detector. </t>
+  </si>
+  <si>
     <t>“The infrastructure of this airport is really quite poor," said Calvin as they waited for their bags to emerge from the x-ray machine.</t>
   </si>
   <si>
     <t xml:space="preserve">“I really could've hidden something in my shoes quite easily.” </t>
   </si>
   <si>
-    <t>Jessie, exasperated at his need to broadcast his every inner thought, scowled at the conveyor belt.</t>
+    <t>Jessie, exasperated, scowled at the conveyor belt.</t>
   </si>
   <si>
     <t>“What?”, he asked.</t>
   </si>
   <si>
-    <t>She balled up her fists and turned to face him.</t>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue Medium"/>
+      </rPr>
+      <t xml:space="preserve">Balling up her fists and turning to him angrily, she said, </t>
+    </r>
     <r>
       <rPr>
         <sz val="16"/>
@@ -99,26 +101,20 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Jessie trailed behind him as they made their way quickly toward their gate, A28, shouting at his back in hopes of getting a response.</t>
+      <t>Jessie trailed behind him as they hurried their way quickly toward gate A28.</t>
     </r>
   </si>
   <si>
-    <t>“So now you have nothing to say?</t>
-  </si>
-  <si>
-    <t>Every time we talk, you are just looking for a way to steer the conversation back into your stories.”</t>
+    <t xml:space="preserve">“So now you have nothing to say?” She yelled ahead. </t>
   </si>
   <si>
     <t xml:space="preserve">Calvin didn't slow his pace, gritting his teeth and staring straight ahead. </t>
   </si>
   <si>
-    <t xml:space="preserve">He was very frustrated that he had been trying to appease Jessie this whole time and this was how she responded. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This silence was punctuated only by the rapid rhythmic clacking of their suitcase wheels over the tile floor as they continued power-walking through the terminal. </t>
-  </si>
-  <si>
-    <t>“Well?” Jessie said,</t>
+    <t xml:space="preserve">He was very frustrated that he felt he had been trying to appease Jessie this whole time and this was how she responded. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Their silence was punctuated only by the rapid rhythmic clacking of their suitcase wheels over the tile floor as they continued power-walking through the terminal. </t>
   </si>
   <si>
     <r>
@@ -127,7 +123,15 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue Medium"/>
       </rPr>
-      <t>Calvin finally turned to her, “</t>
+      <t>Jessie caught up to him and he</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue Medium"/>
+      </rPr>
+      <t xml:space="preserve"> finally turned to address her as they continued walking, “</t>
     </r>
     <r>
       <rPr>
@@ -151,16 +155,21 @@
     <t xml:space="preserve">He was clearly hurt, but thought it was pointless to argue. </t>
   </si>
   <si>
-    <t>They finally made it to the gate, just as they heard the final call for passengers boarding their flight.</t>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue Medium"/>
+      </rPr>
+      <t>Having made it to their gate, t</t>
+    </r>
     <r>
       <rPr>
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>They scanned their tickets, and the annoyed flight attendant shooed them onto the jet bridge and then closed the door behind them.</t>
+      <t>hey scanned their tickets, and the annoyed flight attendant shooed them onto the jet bridge and then closed the door behind them.</t>
     </r>
   </si>
   <si>
@@ -170,13 +179,21 @@
     <t xml:space="preserve">They were both economy, but Jessie was headed for seat 33A while Calvin's seat was 33F. </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue Medium"/>
+      </rPr>
+      <t>B</t>
+    </r>
     <r>
       <rPr>
         <sz val="16"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Before Jessie sat down, she took a deep breath and then awkwardly shook Calvin’s hand, mumbling, “Well, have a nice flight. </t>
+      <t xml:space="preserve">efore Jessie sat down, she took a deep breath, calmed her emotions, and then awkwardly shook Calvin’s hand, mumbling, “Have a nice flight. </t>
     </r>
   </si>
   <si>
@@ -205,7 +222,7 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="13"/>
@@ -479,14 +496,14 @@
     </a:clrScheme>
     <a:fontScheme name="Blank">
       <a:majorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Blank">
@@ -667,10 +684,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Helvetica"/>
+            <a:ea typeface="Helvetica"/>
+            <a:cs typeface="Helvetica"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1238,10 +1255,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Helvetica"/>
+            <a:ea typeface="Helvetica"/>
+            <a:cs typeface="Helvetica"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1495,7 +1512,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1569,8 +1586,8 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="367.8" customHeight="1">
-      <c r="A5" t="s" s="12">
+    <row r="5" ht="128.05" customHeight="1">
+      <c r="A5" t="s" s="8">
         <v>7</v>
       </c>
       <c r="B5" s="9">
@@ -1584,12 +1601,12 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" ht="367.8" customHeight="1">
-      <c r="A6" t="s" s="12">
+    <row r="6" ht="403.8" customHeight="1">
+      <c r="A6" t="s" s="8">
         <v>8</v>
       </c>
       <c r="B6" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -1599,12 +1616,12 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="128.05" customHeight="1">
+    <row r="7" ht="403.8" customHeight="1">
       <c r="A7" t="s" s="8">
         <v>9</v>
       </c>
       <c r="B7" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
@@ -1614,7 +1631,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="403.8" customHeight="1">
+    <row r="8" ht="116.05" customHeight="1">
       <c r="A8" t="s" s="8">
         <v>10</v>
       </c>
@@ -1629,7 +1646,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="116.05" customHeight="1">
+    <row r="9" ht="56.05" customHeight="1">
       <c r="A9" t="s" s="8">
         <v>11</v>
       </c>
@@ -1644,8 +1661,8 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="56.05" customHeight="1">
-      <c r="A10" t="s" s="8">
+    <row r="10" ht="205.8" customHeight="1">
+      <c r="A10" t="s" s="12">
         <v>12</v>
       </c>
       <c r="B10" s="9">
@@ -1659,7 +1676,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="205.8" customHeight="1">
+    <row r="11" ht="43.8" customHeight="1">
       <c r="A11" t="s" s="12">
         <v>13</v>
       </c>
@@ -1674,22 +1691,22 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="43.8" customHeight="1">
-      <c r="A12" t="s" s="12">
+    <row r="12" ht="97.8" customHeight="1">
+      <c r="A12" t="s" s="8">
         <v>14</v>
       </c>
       <c r="B12" s="9">
         <v>2</v>
       </c>
       <c r="C12" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="79.8" customHeight="1">
+    <row r="13" ht="133.8" customHeight="1">
       <c r="A13" t="s" s="12">
         <v>15</v>
       </c>
@@ -1697,15 +1714,15 @@
         <v>2</v>
       </c>
       <c r="C13" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="97.8" customHeight="1">
-      <c r="A14" t="s" s="8">
+    <row r="14" ht="133.8" customHeight="1">
+      <c r="A14" t="s" s="12">
         <v>16</v>
       </c>
       <c r="B14" s="9">
@@ -1719,12 +1736,12 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="133.8" customHeight="1">
-      <c r="A15" t="s" s="12">
+    <row r="15" ht="241.8" customHeight="1">
+      <c r="A15" t="s" s="8">
         <v>17</v>
       </c>
       <c r="B15" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="10">
         <v>2</v>
@@ -1734,12 +1751,12 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="133.8" customHeight="1">
+    <row r="16" ht="79.8" customHeight="1">
       <c r="A16" t="s" s="12">
         <v>18</v>
       </c>
       <c r="B16" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="10">
         <v>2</v>
@@ -1749,8 +1766,8 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="241.8" customHeight="1">
-      <c r="A17" t="s" s="8">
+    <row r="17" ht="151.8" customHeight="1">
+      <c r="A17" t="s" s="12">
         <v>19</v>
       </c>
       <c r="B17" s="9">
@@ -1764,7 +1781,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="79.8" customHeight="1">
+    <row r="18" ht="187.8" customHeight="1">
       <c r="A18" t="s" s="12">
         <v>20</v>
       </c>
@@ -1779,8 +1796,8 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="187.8" customHeight="1">
-      <c r="A19" t="s" s="12">
+    <row r="19" ht="128.05" customHeight="1">
+      <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
       <c r="B19" s="9">
@@ -1794,22 +1811,22 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="151.8" customHeight="1">
-      <c r="A20" t="s" s="12">
+    <row r="20" ht="97.8" customHeight="1">
+      <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
       <c r="B20" s="9">
         <v>3</v>
       </c>
       <c r="C20" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="187.8" customHeight="1">
+    <row r="21" ht="205.8" customHeight="1">
       <c r="A21" t="s" s="12">
         <v>23</v>
       </c>
@@ -1817,29 +1834,29 @@
         <v>3</v>
       </c>
       <c r="C21" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="128.05" customHeight="1">
-      <c r="A22" t="s" s="8">
+    <row r="22" ht="205.8" customHeight="1">
+      <c r="A22" t="s" s="12">
         <v>24</v>
       </c>
       <c r="B22" s="9">
         <v>3</v>
       </c>
       <c r="C22" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="115.8" customHeight="1">
+    <row r="23" ht="187.8" customHeight="1">
       <c r="A23" t="s" s="12">
         <v>25</v>
       </c>
@@ -1847,15 +1864,15 @@
         <v>3</v>
       </c>
       <c r="C23" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="97.8" customHeight="1">
-      <c r="A24" t="s" s="8">
+    <row r="24" ht="115.8" customHeight="1">
+      <c r="A24" t="s" s="12">
         <v>26</v>
       </c>
       <c r="B24" s="9">
@@ -1869,12 +1886,12 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="205.8" customHeight="1">
+    <row r="25" ht="277.8" customHeight="1">
       <c r="A25" t="s" s="12">
         <v>27</v>
       </c>
       <c r="B25" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
@@ -1884,12 +1901,12 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="205.8" customHeight="1">
+    <row r="26" ht="151.8" customHeight="1">
       <c r="A26" t="s" s="12">
         <v>28</v>
       </c>
       <c r="B26" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="10">
         <v>3</v>
@@ -1904,7 +1921,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="10">
         <v>3</v>
@@ -1914,37 +1931,37 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="115.8" customHeight="1">
+    <row r="28" ht="259.8" customHeight="1">
       <c r="A28" t="s" s="12">
         <v>30</v>
       </c>
       <c r="B28" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="169.8" customHeight="1">
+    <row r="29" ht="259.8" customHeight="1">
       <c r="A29" t="s" s="12">
         <v>31</v>
       </c>
       <c r="B29" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="277.8" customHeight="1">
+    <row r="30" ht="169.8" customHeight="1">
       <c r="A30" t="s" s="12">
         <v>32</v>
       </c>
@@ -1952,14 +1969,14 @@
         <v>4</v>
       </c>
       <c r="C30" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="151.8" customHeight="1">
+    <row r="31" ht="329.8" customHeight="1">
       <c r="A31" t="s" s="12">
         <v>33</v>
       </c>
@@ -1967,93 +1984,18 @@
         <v>4</v>
       </c>
       <c r="C31" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="187.8" customHeight="1">
-      <c r="A32" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="B32" s="9">
-        <v>4</v>
-      </c>
-      <c r="C32" s="10">
-        <v>3</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" ht="259.8" customHeight="1">
-      <c r="A33" t="s" s="12">
-        <v>35</v>
-      </c>
-      <c r="B33" s="9">
-        <v>4</v>
-      </c>
-      <c r="C33" s="10">
-        <v>4</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" ht="259.8" customHeight="1">
-      <c r="A34" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="B34" s="9">
-        <v>4</v>
-      </c>
-      <c r="C34" s="10">
-        <v>4</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" ht="169.8" customHeight="1">
-      <c r="A35" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="B35" s="9">
-        <v>4</v>
-      </c>
-      <c r="C35" s="10">
-        <v>4</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" ht="329.8" customHeight="1">
-      <c r="A36" t="s" s="12">
-        <v>38</v>
-      </c>
-      <c r="B36" s="9">
-        <v>4</v>
-      </c>
-      <c r="C36" s="10">
-        <v>4</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/story_xlsx_files/12.xlsx
+++ b/story_xlsx_files/12.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">It had been a tough vacation for them, and Jessie finally decided she would break up with Calvin after 6 weeks of thinking about it. </t>
   </si>
   <si>
-    <t>Calvin knew that Jessie was upset, but wasn't sure what to do besides attempting to carry on as normal.</t>
+    <t>Calvin knew that Jessie was upset, but wasn't sure what to do besides attempt to carry on as normal.</t>
   </si>
   <si>
     <r>
@@ -52,7 +52,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>The security line was luckily very short, and once the online boarding passes were scanned, Calvin took his belt and watch and they put their bags on the conveyor belt.</t>
+      <t>The security line was luckily very short, and once the online boarding passes were scanned, Calvin took his belt and watch, and they put their bags on the conveyor belt.</t>
     </r>
   </si>
   <si>
@@ -68,7 +68,7 @@
     <t>Jessie, exasperated, scowled at the conveyor belt.</t>
   </si>
   <si>
-    <t>“What?”, he asked.</t>
+    <t>“What?” he asked.</t>
   </si>
   <si>
     <r>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">I think it’s best that once we get to the States we part ways for good.” </t>
   </si>
   <si>
-    <t>Calvin said nothing as he grabbed his bag and quickly walked away.</t>
+    <t>Calvin said nothing as he grabbed his bag.</t>
   </si>
   <si>
     <r>
@@ -105,13 +105,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">“So now you have nothing to say?” She yelled ahead. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calvin didn't slow his pace, gritting his teeth and staring straight ahead. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">He was very frustrated that he felt he had been trying to appease Jessie this whole time and this was how she responded. </t>
+    <t xml:space="preserve">“So now you have nothing to say?” Jessie said. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calvin didn't answer, gritting his teeth and staring straight ahead. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He was very frustrated that he felt he had been trying to appease Jessie the whole vacation and this was how she responded. </t>
   </si>
   <si>
     <t xml:space="preserve">Their silence was punctuated only by the rapid rhythmic clacking of their suitcase wheels over the tile floor as they continued power-walking through the terminal. </t>
@@ -123,7 +123,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue Medium"/>
       </rPr>
-      <t>Jessie caught up to him and he</t>
+      <t>He</t>
     </r>
     <r>
       <rPr>
@@ -152,7 +152,7 @@
     <t>You should’ve spoken up about my apparent intolerability before you decided to plan this vacation.”</t>
   </si>
   <si>
-    <t xml:space="preserve">He was clearly hurt, but thought it was pointless to argue. </t>
+    <t xml:space="preserve">He was very hurt, even though he didn’t want to show it. </t>
   </si>
   <si>
     <r>
@@ -169,7 +169,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>hey scanned their tickets, and the annoyed flight attendant shooed them onto the jet bridge and then closed the door behind them.</t>
+      <t>hey scanned their tickets, and the annoyed flight attendant shooed them onto the jet bridge and then closed the plane door behind them.</t>
     </r>
   </si>
   <si>
@@ -197,13 +197,13 @@
     </r>
   </si>
   <si>
-    <t>Oh, and when you get a chance could you send me back all the philosophy books I lent you?”</t>
+    <t>Oh, and when you get a chance, could you send me back all the philosophy books I lent you?”</t>
   </si>
   <si>
     <t>He laughed in disbelief and walked to his window seat three rows back to get ready for takeoff.</t>
   </si>
   <si>
-    <t xml:space="preserve">Both were upset but glad that they would have this flight to mull things over and recenter. </t>
+    <t>Both were upset but glad that they would have this flight in solitude.</t>
   </si>
 </sst>
 </file>

--- a/story_xlsx_files/12.xlsx
+++ b/story_xlsx_files/12.xlsx
@@ -33,14 +33,14 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>It didn’t help the situation that Calvin and Jessie were running late to the airport, since Jessie had already been fuming at Calvin and preparing to end things with him.</t>
+      <t>It didn’t help the situation that Calvin and Jessie were running late to the airport, since Jessie had already been fuming at Calvin and preparing to end the relationship with him.</t>
     </r>
   </si>
   <si>
-    <t>Upon arriving, they had only 45 minutes until their international flight would depart from Jamaica for the US.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It had been a tough vacation for them, and Jessie finally decided she would break up with Calvin after 6 weeks of thinking about it. </t>
+    <t>Upon arriving at their terminal, they had only 45 minutes until their international flight would depart from Jamaica for the US.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It had been a tough vacation, which was planned well before Jessie began to think of breaking up 6 weeks ago.  </t>
   </si>
   <si>
     <t>Calvin knew that Jessie was upset, but wasn't sure what to do besides attempt to carry on as normal.</t>
@@ -52,17 +52,17 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>The security line was luckily very short, and once the online boarding passes were scanned, Calvin took his belt and watch, and they put their bags on the conveyor belt.</t>
+      <t>The security line was very short, and once the online boarding passes were scanned, Calvin took off his belt and watch, and they put their bags on the conveyor belt.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">There was a short halt in security proceedings so that the security guards could change shifts but once everything was back in order they were ushered quickly through the metal detector. </t>
+    <t xml:space="preserve">There was a short halt in security proceedings so that the security guards could change shifts, but, once everything was back in order, they were ushered quickly through the metal detector. </t>
   </si>
   <si>
     <t>“The infrastructure of this airport is really quite poor," said Calvin as they waited for their bags to emerge from the x-ray machine.</t>
   </si>
   <si>
-    <t xml:space="preserve">“I really could've hidden something in my shoes quite easily.” </t>
+    <t xml:space="preserve">“I could've hidden something in my shoes quite easily.” </t>
   </si>
   <si>
     <t>Jessie, exasperated, scowled at the conveyor belt.</t>
@@ -111,10 +111,10 @@
     <t xml:space="preserve">Calvin didn't answer, gritting his teeth and staring straight ahead. </t>
   </si>
   <si>
-    <t xml:space="preserve">He was very frustrated that he felt he had been trying to appease Jessie the whole vacation and this was how she responded. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Their silence was punctuated only by the rapid rhythmic clacking of their suitcase wheels over the tile floor as they continued power-walking through the terminal. </t>
+    <t xml:space="preserve">He was very frustrated that he felt he had been trying to appease Jessie for the entirety of the vacation, and it seemed to be completed unappreciated. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Their silence was punctuated only by the rapid, rhythmic clacking of their suitcase wheels over the tile floor as they continued power-walking through the terminal. </t>
   </si>
   <si>
     <r>
@@ -123,7 +123,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue Medium"/>
       </rPr>
-      <t>He</t>
+      <t>Calvin</t>
     </r>
     <r>
       <rPr>
@@ -131,7 +131,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue Medium"/>
       </rPr>
-      <t xml:space="preserve"> finally turned to address her as they continued walking, “</t>
+      <t xml:space="preserve"> finally turned to address her as they continued walking: “</t>
     </r>
     <r>
       <rPr>
@@ -139,7 +139,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Well, Jessie, this makes perfect sense. </t>
+      <t xml:space="preserve">Jessie, this makes perfect sense. </t>
     </r>
   </si>
   <si>
@@ -176,7 +176,7 @@
     <t>Luckily, they had forgotten to arrange seats next to each other on the flight back.</t>
   </si>
   <si>
-    <t xml:space="preserve">They were both economy, but Jessie was headed for seat 33A while Calvin's seat was 33F. </t>
+    <t xml:space="preserve">They were both in economy, but Jessie was headed for seat 33A while Calvin's seat was 33F. </t>
   </si>
   <si>
     <r>
@@ -1726,7 +1726,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>

--- a/story_xlsx_files/12.xlsx
+++ b/story_xlsx_files/12.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>storyText</t>
   </si>
@@ -37,10 +37,10 @@
     </r>
   </si>
   <si>
-    <t>Upon arriving at their terminal, they had only 45 minutes until their international flight would depart from Jamaica for the US.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It had been a tough vacation, which was planned well before Jessie began to think of breaking up 6 weeks ago.  </t>
+    <t>Upon arriving at their terminal, they only had 45 minutes until their international flight would depart from Jamaica for the US.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It had been a tough vacation, which was planned well before Jessie began to think of breaking up with Calvin 6 weeks ago.  </t>
   </si>
   <si>
     <t>Calvin knew that Jessie was upset, but wasn't sure what to do besides attempt to carry on as normal.</t>
@@ -52,17 +52,20 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>The security line was very short, and once the online boarding passes were scanned, Calvin took off his belt and watch, and they put their bags on the conveyor belt.</t>
+      <t>The security line was very short, and once the online boarding passes were scanned, they put their bags on the conveyor belt.</t>
     </r>
   </si>
   <si>
+    <t>Calvin also took off his belt and watch.</t>
+  </si>
+  <si>
     <t xml:space="preserve">There was a short halt in security proceedings so that the security guards could change shifts, but, once everything was back in order, they were ushered quickly through the metal detector. </t>
   </si>
   <si>
     <t>“The infrastructure of this airport is really quite poor," said Calvin as they waited for their bags to emerge from the x-ray machine.</t>
   </si>
   <si>
-    <t xml:space="preserve">“I could've hidden something in my shoes quite easily.” </t>
+    <t xml:space="preserve">“I could've hidden something in my shoes easily.” </t>
   </si>
   <si>
     <t>Jessie, exasperated, scowled at the conveyor belt.</t>
@@ -92,7 +95,7 @@
     <t xml:space="preserve">I think it’s best that once we get to the States we part ways for good.” </t>
   </si>
   <si>
-    <t>Calvin said nothing as he grabbed his bag.</t>
+    <t>Calvin said nothing as he grabbed his bag and walked down the concourse.</t>
   </si>
   <si>
     <r>
@@ -213,7 +216,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -239,6 +242,11 @@
       <sz val="16"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color indexed="8"/>
+      <name val="Times"/>
     </font>
   </fonts>
   <fills count="5">
@@ -386,7 +394,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -425,6 +433,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1512,7 +1523,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1617,7 +1628,7 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" ht="403.8" customHeight="1">
-      <c r="A7" t="s" s="8">
+      <c r="A7" t="s" s="13">
         <v>9</v>
       </c>
       <c r="B7" s="9">
@@ -1631,7 +1642,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="116.05" customHeight="1">
+    <row r="8" ht="403.8" customHeight="1">
       <c r="A8" t="s" s="8">
         <v>10</v>
       </c>
@@ -1646,7 +1657,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="56.05" customHeight="1">
+    <row r="9" ht="116.05" customHeight="1">
       <c r="A9" t="s" s="8">
         <v>11</v>
       </c>
@@ -1661,8 +1672,8 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="205.8" customHeight="1">
-      <c r="A10" t="s" s="12">
+    <row r="10" ht="56.05" customHeight="1">
+      <c r="A10" t="s" s="8">
         <v>12</v>
       </c>
       <c r="B10" s="9">
@@ -1676,7 +1687,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="43.8" customHeight="1">
+    <row r="11" ht="205.8" customHeight="1">
       <c r="A11" t="s" s="12">
         <v>13</v>
       </c>
@@ -1691,23 +1702,23 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="97.8" customHeight="1">
-      <c r="A12" t="s" s="8">
+    <row r="12" ht="43.8" customHeight="1">
+      <c r="A12" t="s" s="12">
         <v>14</v>
       </c>
       <c r="B12" s="9">
         <v>2</v>
       </c>
       <c r="C12" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="133.8" customHeight="1">
-      <c r="A13" t="s" s="12">
+    <row r="13" ht="97.8" customHeight="1">
+      <c r="A13" t="s" s="8">
         <v>15</v>
       </c>
       <c r="B13" s="9">
@@ -1726,7 +1737,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
@@ -1736,8 +1747,8 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="241.8" customHeight="1">
-      <c r="A15" t="s" s="8">
+    <row r="15" ht="133.8" customHeight="1">
+      <c r="A15" t="s" s="12">
         <v>17</v>
       </c>
       <c r="B15" s="9">
@@ -1751,8 +1762,8 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="79.8" customHeight="1">
-      <c r="A16" t="s" s="12">
+    <row r="16" ht="241.8" customHeight="1">
+      <c r="A16" t="s" s="8">
         <v>18</v>
       </c>
       <c r="B16" s="9">
@@ -1766,7 +1777,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="151.8" customHeight="1">
+    <row r="17" ht="79.8" customHeight="1">
       <c r="A17" t="s" s="12">
         <v>19</v>
       </c>
@@ -1781,7 +1792,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="187.8" customHeight="1">
+    <row r="18" ht="151.8" customHeight="1">
       <c r="A18" t="s" s="12">
         <v>20</v>
       </c>
@@ -1796,8 +1807,8 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="128.05" customHeight="1">
-      <c r="A19" t="s" s="8">
+    <row r="19" ht="187.8" customHeight="1">
+      <c r="A19" t="s" s="12">
         <v>21</v>
       </c>
       <c r="B19" s="9">
@@ -1811,7 +1822,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="97.8" customHeight="1">
+    <row r="20" ht="128.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
@@ -1819,15 +1830,15 @@
         <v>3</v>
       </c>
       <c r="C20" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="205.8" customHeight="1">
-      <c r="A21" t="s" s="12">
+    <row r="21" ht="97.8" customHeight="1">
+      <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
       <c r="B21" s="9">
@@ -1856,7 +1867,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="187.8" customHeight="1">
+    <row r="23" ht="205.8" customHeight="1">
       <c r="A23" t="s" s="12">
         <v>25</v>
       </c>
@@ -1871,7 +1882,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="115.8" customHeight="1">
+    <row r="24" ht="187.8" customHeight="1">
       <c r="A24" t="s" s="12">
         <v>26</v>
       </c>
@@ -1886,12 +1897,12 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="277.8" customHeight="1">
+    <row r="25" ht="115.8" customHeight="1">
       <c r="A25" t="s" s="12">
         <v>27</v>
       </c>
       <c r="B25" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
@@ -1901,7 +1912,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="151.8" customHeight="1">
+    <row r="26" ht="277.8" customHeight="1">
       <c r="A26" t="s" s="12">
         <v>28</v>
       </c>
@@ -1916,7 +1927,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="187.8" customHeight="1">
+    <row r="27" ht="151.8" customHeight="1">
       <c r="A27" t="s" s="12">
         <v>29</v>
       </c>
@@ -1931,7 +1942,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="259.8" customHeight="1">
+    <row r="28" ht="187.8" customHeight="1">
       <c r="A28" t="s" s="12">
         <v>30</v>
       </c>
@@ -1939,7 +1950,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -1961,7 +1972,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="169.8" customHeight="1">
+    <row r="30" ht="259.8" customHeight="1">
       <c r="A30" t="s" s="12">
         <v>32</v>
       </c>
@@ -1976,7 +1987,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="329.8" customHeight="1">
+    <row r="31" ht="169.8" customHeight="1">
       <c r="A31" t="s" s="12">
         <v>33</v>
       </c>
@@ -1990,6 +2001,21 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
+    </row>
+    <row r="32" ht="329.8" customHeight="1">
+      <c r="A32" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="B32" s="9">
+        <v>4</v>
+      </c>
+      <c r="C32" s="10">
+        <v>4</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/12.xlsx
+++ b/story_xlsx_files/12.xlsx
@@ -179,7 +179,7 @@
     <t>Luckily, they had forgotten to arrange seats next to each other on the flight back.</t>
   </si>
   <si>
-    <t xml:space="preserve">They were both in economy, but Jessie was headed for seat 33A while Calvin's seat was 33F. </t>
+    <t xml:space="preserve">They were both in economy, but Jessie was headed for seat 33A while Calvin's seat was 36F. </t>
   </si>
   <si>
     <r>
